--- a/Menu/staff.xlsx
+++ b/Menu/staff.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="7830" windowHeight="4845"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Staff!$A$1:$I$1</definedName>
     <definedName name="staffExported" localSheetId="0">Staff!$A$2:$I$54</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="257">
   <si>
     <t>Name</t>
   </si>
@@ -805,6 +805,12 @@
   </si>
   <si>
     <t>74</t>
+  </si>
+  <si>
+    <t>Maama Letsie</t>
+  </si>
+  <si>
+    <t>0099</t>
   </si>
 </sst>
 </file>
@@ -1153,12 +1159,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:B23"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2556,6 +2562,17 @@
       <c r="F54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:I54">

--- a/Menu/staff.xlsx
+++ b/Menu/staff.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Staff" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$1</definedName>
@@ -16,6 +17,7 @@
     <definedName name="staffExported" localSheetId="0">Staff!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="369">
   <si>
     <t>Name</t>
   </si>
@@ -198,9 +200,6 @@
     <t>A09</t>
   </si>
   <si>
-    <t>02131211019</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -510,9 +509,6 @@
     <t>Mantoa Mabele</t>
   </si>
   <si>
-    <t>5247</t>
-  </si>
-  <si>
     <t>Motlalepula Fako</t>
   </si>
   <si>
@@ -714,9 +710,6 @@
     <t>Mpai Mokebisa</t>
   </si>
   <si>
-    <t>9557</t>
-  </si>
-  <si>
     <t>Ramohotsi Mokoena</t>
   </si>
   <si>
@@ -885,255 +878,42 @@
     <t>EA</t>
   </si>
   <si>
-    <t>02140812001</t>
-  </si>
-  <si>
     <t>03260712003</t>
   </si>
   <si>
-    <t>04471012008</t>
-  </si>
-  <si>
-    <t>04380121009</t>
-  </si>
-  <si>
-    <t>01010112022</t>
-  </si>
-  <si>
-    <t>04450822022</t>
-  </si>
-  <si>
     <t>03270812023</t>
   </si>
   <si>
-    <t>01040423029</t>
-  </si>
-  <si>
-    <t>04351111030</t>
-  </si>
-  <si>
     <t>03210312031</t>
   </si>
   <si>
-    <t>04341111031</t>
-  </si>
-  <si>
-    <t>09790332039</t>
-  </si>
-  <si>
-    <t>04460932041</t>
-  </si>
-  <si>
-    <t>02090411045</t>
-  </si>
-  <si>
     <t>03241011046</t>
   </si>
   <si>
-    <t>04440722049</t>
-  </si>
-  <si>
-    <t>02131211050</t>
-  </si>
-  <si>
-    <t>04301111055</t>
-  </si>
-  <si>
-    <t>01030332056</t>
-  </si>
-  <si>
-    <t>04421111056</t>
-  </si>
-  <si>
-    <t>04471211056</t>
-  </si>
-  <si>
-    <t>04411111057</t>
-  </si>
-  <si>
-    <t>02131211058</t>
-  </si>
-  <si>
-    <t>04371111058</t>
-  </si>
-  <si>
-    <t>01050511060</t>
-  </si>
-  <si>
     <t>03200232061</t>
   </si>
   <si>
-    <t>04361111064</t>
-  </si>
-  <si>
-    <t>02131211067</t>
-  </si>
-  <si>
     <t>03281111067</t>
   </si>
   <si>
-    <t>02171013070</t>
-  </si>
-  <si>
-    <t>09770132071</t>
-  </si>
-  <si>
-    <t>02131211074</t>
-  </si>
-  <si>
-    <t>02161311074</t>
-  </si>
-  <si>
     <t>03230512077</t>
   </si>
   <si>
-    <t>04321111077</t>
-  </si>
-  <si>
-    <t>02110511083</t>
-  </si>
-  <si>
-    <t>02081211084</t>
-  </si>
-  <si>
-    <t>02131211084</t>
-  </si>
-  <si>
-    <t>02110612085</t>
-  </si>
-  <si>
-    <t>02131211097</t>
-  </si>
-  <si>
-    <t>04401111099</t>
-  </si>
-  <si>
-    <t>04430613099</t>
-  </si>
-  <si>
-    <t>02131211101</t>
-  </si>
-  <si>
-    <t>02070222107</t>
-  </si>
-  <si>
-    <t>02131211109</t>
-  </si>
-  <si>
     <t>03271111110</t>
   </si>
   <si>
-    <t>02140812115</t>
-  </si>
-  <si>
-    <t>09780232116</t>
-  </si>
-  <si>
-    <t>02171013117</t>
-  </si>
-  <si>
-    <t>09790332118</t>
-  </si>
-  <si>
-    <t>04311111119</t>
-  </si>
-  <si>
-    <t>02131211127</t>
-  </si>
-  <si>
-    <t>02151311128</t>
-  </si>
-  <si>
     <t>03250622133</t>
   </si>
   <si>
-    <t>09800432134</t>
-  </si>
-  <si>
-    <t>02160912137</t>
-  </si>
-  <si>
-    <t>02141211140</t>
-  </si>
-  <si>
-    <t>02151311145</t>
-  </si>
-  <si>
-    <t>04391121146</t>
-  </si>
-  <si>
     <t>03220413147</t>
   </si>
   <si>
-    <t>04420513152</t>
-  </si>
-  <si>
-    <t>04331111157</t>
-  </si>
-  <si>
-    <t>02060132159</t>
-  </si>
-  <si>
-    <t>02131211159</t>
-  </si>
-  <si>
-    <t>02080322160</t>
-  </si>
-  <si>
-    <t>09790531162</t>
-  </si>
-  <si>
-    <t>02120711166</t>
-  </si>
-  <si>
-    <t>09800432167</t>
-  </si>
-  <si>
-    <t>02100511172</t>
-  </si>
-  <si>
-    <t>02161311172</t>
-  </si>
-  <si>
     <t>03291111172</t>
   </si>
   <si>
-    <t>04400313174</t>
-  </si>
-  <si>
-    <t>04390232175</t>
-  </si>
-  <si>
-    <t>04410412180</t>
-  </si>
-  <si>
-    <t>02160912181</t>
-  </si>
-  <si>
-    <t>02141211184</t>
-  </si>
-  <si>
     <t>03190122184</t>
   </si>
   <si>
-    <t>02131211185</t>
-  </si>
-  <si>
-    <t>02181113185</t>
-  </si>
-  <si>
-    <t>04381111188</t>
-  </si>
-  <si>
-    <t>02181113194</t>
-  </si>
-  <si>
-    <t>04431111197</t>
-  </si>
-  <si>
-    <t>01020222200</t>
-  </si>
-  <si>
     <t>3039</t>
   </si>
   <si>
@@ -1146,18 +926,238 @@
     <t>Ivy Makoa</t>
   </si>
   <si>
-    <t>02131211001</t>
-  </si>
-  <si>
-    <t>02131211099</t>
+    <t>h</t>
+  </si>
+  <si>
+    <t>03190122026</t>
+  </si>
+  <si>
+    <t>03190122043</t>
+  </si>
+  <si>
+    <t>03190122045</t>
+  </si>
+  <si>
+    <t>03190122048</t>
+  </si>
+  <si>
+    <t>03190122091</t>
+  </si>
+  <si>
+    <t>03190122097</t>
+  </si>
+  <si>
+    <t>03200232107</t>
+  </si>
+  <si>
+    <t>03200232128</t>
+  </si>
+  <si>
+    <t>03200232132</t>
+  </si>
+  <si>
+    <t>03200232154</t>
+  </si>
+  <si>
+    <t>03200232167</t>
+  </si>
+  <si>
+    <t>03200232185</t>
+  </si>
+  <si>
+    <t>03210312015</t>
+  </si>
+  <si>
+    <t>03210312041</t>
+  </si>
+  <si>
+    <t>03210312049</t>
+  </si>
+  <si>
+    <t>03210312052</t>
+  </si>
+  <si>
+    <t>03210312074</t>
+  </si>
+  <si>
+    <t>03210312109</t>
+  </si>
+  <si>
+    <t>03220413028</t>
+  </si>
+  <si>
+    <t>03220413033</t>
+  </si>
+  <si>
+    <t>03220413085</t>
+  </si>
+  <si>
+    <t>03220413112</t>
+  </si>
+  <si>
+    <t>03220413158</t>
+  </si>
+  <si>
+    <t>03220413192</t>
+  </si>
+  <si>
+    <t>03230512036</t>
+  </si>
+  <si>
+    <t>03230512047</t>
+  </si>
+  <si>
+    <t>03230512054</t>
+  </si>
+  <si>
+    <t>03230512093</t>
+  </si>
+  <si>
+    <t>03230512131</t>
+  </si>
+  <si>
+    <t>03230512143</t>
+  </si>
+  <si>
+    <t>03241011002</t>
+  </si>
+  <si>
+    <t>03241011022</t>
+  </si>
+  <si>
+    <t>03241011027</t>
+  </si>
+  <si>
+    <t>03241011053</t>
+  </si>
+  <si>
+    <t>03241011121</t>
+  </si>
+  <si>
+    <t>03241011126</t>
+  </si>
+  <si>
+    <t>03250622037</t>
+  </si>
+  <si>
+    <t>03250622065</t>
+  </si>
+  <si>
+    <t>03250622069</t>
+  </si>
+  <si>
+    <t>03250622087</t>
+  </si>
+  <si>
+    <t>03250622114</t>
+  </si>
+  <si>
+    <t>03250622187</t>
+  </si>
+  <si>
+    <t>03250622189</t>
+  </si>
+  <si>
+    <t>03260712001</t>
+  </si>
+  <si>
+    <t>03260712042</t>
+  </si>
+  <si>
+    <t>03260712060</t>
+  </si>
+  <si>
+    <t>03260712062</t>
+  </si>
+  <si>
+    <t>03260712088</t>
+  </si>
+  <si>
+    <t>03260712164</t>
+  </si>
+  <si>
+    <t>03260712170</t>
+  </si>
+  <si>
+    <t>03270812040</t>
+  </si>
+  <si>
+    <t>03270812056</t>
+  </si>
+  <si>
+    <t>03270812057</t>
+  </si>
+  <si>
+    <t>03270812105</t>
+  </si>
+  <si>
+    <t>03270812127</t>
+  </si>
+  <si>
+    <t>03270812186</t>
+  </si>
+  <si>
+    <t>03271111051</t>
+  </si>
+  <si>
+    <t>03271111106</t>
+  </si>
+  <si>
+    <t>03271111119</t>
+  </si>
+  <si>
+    <t>03271111144</t>
+  </si>
+  <si>
+    <t>03271111173</t>
+  </si>
+  <si>
+    <t>03271111199</t>
+  </si>
+  <si>
+    <t>03281111005</t>
+  </si>
+  <si>
+    <t>03281111018</t>
+  </si>
+  <si>
+    <t>03281111063</t>
+  </si>
+  <si>
+    <t>03281111073</t>
+  </si>
+  <si>
+    <t>03281111095</t>
+  </si>
+  <si>
+    <t>03281111123</t>
+  </si>
+  <si>
+    <t>03291111004</t>
+  </si>
+  <si>
+    <t>03291111010</t>
+  </si>
+  <si>
+    <t>03291111058</t>
+  </si>
+  <si>
+    <t>03291111084</t>
+  </si>
+  <si>
+    <t>03291111150</t>
+  </si>
+  <si>
+    <t>03291111200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1196,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1204,6 +1204,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,10 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1516,7 +1515,7 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1554,25 +1553,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>300</v>
+      <c r="D2" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>54</v>
@@ -1583,28 +1582,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>321</v>
+      <c r="D3" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>258</v>
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>54</v>
@@ -1612,45 +1611,45 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
+      <c r="D4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" t="s">
+        <v>267</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -1662,33 +1661,33 @@
         <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>356</v>
+      <c r="D6" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>54</v>
@@ -1699,28 +1698,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
+      <c r="D7" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>54</v>
@@ -1728,86 +1727,86 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>288</v>
+      <c r="D8" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>237</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>317</v>
+      <c r="D9" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>323</v>
+      <c r="D10" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>54</v>
@@ -1815,57 +1814,57 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>362</v>
+      <c r="D11" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>261</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>339</v>
+      <c r="D12" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>54</v>
@@ -1873,16 +1872,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
         <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -1894,113 +1893,113 @@
         <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
         <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>337</v>
+      <c r="D14" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>243</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
         <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>350</v>
+      <c r="D15" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17">
         <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -2008,17 +2007,17 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>312</v>
+      <c r="D18" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>54</v>
@@ -2029,57 +2028,57 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>315</v>
+      <c r="D19" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>313</v>
+      <c r="D20" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>54</v>
@@ -2087,144 +2086,144 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
         <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>328</v>
+      <c r="D21" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2</v>
+        <v>268</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>283</v>
+      <c r="D22" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>264</v>
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
         <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>324</v>
+      <c r="D23" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>320</v>
+      <c r="D24" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>316</v>
+      <c r="D25" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>54</v>
@@ -2232,28 +2231,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
         <v>129</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>329</v>
+      <c r="D26" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>53</v>
@@ -2261,25 +2260,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
         <v>147</v>
-      </c>
-      <c r="B27" t="s">
-        <v>148</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>358</v>
+      <c r="D27" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>54</v>
@@ -2290,57 +2289,57 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>286</v>
+      <c r="D28" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>62</v>
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>331</v>
+      <c r="D29" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>54</v>
@@ -2348,57 +2347,57 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
         <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>327</v>
+      <c r="D30" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" t="s">
         <v>151</v>
-      </c>
-      <c r="B31" t="s">
-        <v>152</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>360</v>
+      <c r="D31" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>54</v>
@@ -2406,65 +2405,65 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
         <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>296</v>
+      <c r="D32" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
         <v>154</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>352</v>
+      <c r="D33" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -2473,65 +2472,65 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
-        <v>354</v>
+      <c r="D35" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -2543,65 +2542,65 @@
         <v>48</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>353</v>
+      <c r="D37" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>256</v>
+        <v>22</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>291</v>
+      <c r="D38" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" t="s">
-        <v>252</v>
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>54</v>
@@ -2609,57 +2608,57 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>289</v>
+      <c r="D39" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>253</v>
+        <v>22</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G39" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>310</v>
+      <c r="D40" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>53</v>
@@ -2667,86 +2666,86 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
         <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>281</v>
+      <c r="D41" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>318</v>
+      <c r="D42" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>298</v>
+      <c r="D43" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G43" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>54</v>
@@ -2754,231 +2753,231 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>330</v>
+      <c r="D44" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" t="s">
-        <v>268</v>
+        <v>22</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="1">
-        <v>3</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2</v>
+        <v>241</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>311</v>
+      <c r="D45" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>274</v>
-      </c>
-      <c r="H45" s="1">
-        <v>3</v>
-      </c>
-      <c r="I45" s="1">
-        <v>2</v>
+        <v>268</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>345</v>
+      <c r="D46" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="G46" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
         <v>145</v>
-      </c>
-      <c r="B47" t="s">
-        <v>146</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
         <v>131</v>
-      </c>
-      <c r="B48" t="s">
-        <v>132</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>156</v>
+      <c r="A49">
+        <v>8247</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>361</v>
+      <c r="D49" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
         <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>302</v>
+      <c r="D50" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>243</v>
       </c>
       <c r="G50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
-        <v>333</v>
+      <c r="D51" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>54</v>
@@ -2986,57 +2985,57 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" t="s">
-        <v>346</v>
+      <c r="D52" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" t="s">
         <v>268</v>
       </c>
-      <c r="G52" t="s">
-        <v>267</v>
-      </c>
-      <c r="H52" s="1">
-        <v>3</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
+      <c r="H52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
-        <v>347</v>
+      <c r="D53" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G53" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>54</v>
@@ -3044,83 +3043,83 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" t="s">
-        <v>293</v>
+      <c r="D54" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s">
         <v>149</v>
-      </c>
-      <c r="B55" t="s">
-        <v>150</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
-        <v>359</v>
+      <c r="D55" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
-        <v>307</v>
+      <c r="D56" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>54</v>
@@ -3131,45 +3130,45 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="1">
-        <v>13</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1</v>
+      <c r="D57" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -3181,152 +3180,152 @@
         <v>38</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
         <v>92</v>
-      </c>
-      <c r="B61" t="s">
-        <v>93</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>301</v>
+      <c r="D61" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>264</v>
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>224</v>
+      <c r="A62">
+        <v>9557</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" t="s">
-        <v>348</v>
+      <c r="D62" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" t="s">
-        <v>269</v>
+        <v>22</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
-      </c>
-      <c r="H62" s="1">
-        <v>3</v>
-      </c>
-      <c r="I62" s="1">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
         <v>108</v>
-      </c>
-      <c r="B63" t="s">
-        <v>109</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>342</v>
+      <c r="D63" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>251</v>
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>54</v>
@@ -3334,60 +3333,60 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
         <v>139</v>
-      </c>
-      <c r="B64" t="s">
-        <v>140</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>344</v>
+      <c r="D64" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" t="s">
         <v>112</v>
-      </c>
-      <c r="B65" t="s">
-        <v>113</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>304</v>
+      <c r="D65" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3395,25 +3394,25 @@
         <v>2928</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>305</v>
+      <c r="D66" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>54</v>
@@ -3421,36 +3420,36 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
         <v>106</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>341</v>
+      <c r="D67" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>260</v>
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -3459,106 +3458,106 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>336</v>
+      <c r="D69" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="s">
         <v>84</v>
-      </c>
-      <c r="B71" t="s">
-        <v>85</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" t="s">
-        <v>297</v>
+      <c r="D71" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>54</v>
@@ -3566,115 +3565,115 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>72</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>285</v>
+      <c r="D72" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>229</v>
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>239</v>
       </c>
       <c r="G72" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
-        <v>308</v>
+      <c r="D73" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
         <v>88</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>299</v>
+      <c r="D74" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
         <v>110</v>
-      </c>
-      <c r="B75" t="s">
-        <v>111</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" t="s">
-        <v>303</v>
+      <c r="D75" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>54</v>
@@ -3682,60 +3681,60 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
         <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>81</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G76" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" t="s">
         <v>119</v>
-      </c>
-      <c r="B77" t="s">
-        <v>120</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" t="s">
-        <v>325</v>
+      <c r="D77" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>243</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3743,80 +3742,80 @@
         <v>7847</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" t="s">
-        <v>319</v>
+      <c r="D78" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G78" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
         <v>69</v>
-      </c>
-      <c r="B79" t="s">
-        <v>70</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>284</v>
+      <c r="D79" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" t="s">
-        <v>294</v>
+      <c r="D80" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>54</v>
@@ -3827,115 +3826,115 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" t="s">
-        <v>363</v>
+      <c r="D81" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s">
         <v>137</v>
-      </c>
-      <c r="B82" t="s">
-        <v>138</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>343</v>
+      <c r="D82" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
         <v>133</v>
-      </c>
-      <c r="B83" t="s">
-        <v>134</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>335</v>
+      <c r="D83" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>272</v>
-      </c>
-      <c r="H83" s="1">
-        <v>3</v>
-      </c>
-      <c r="I83" s="1">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
         <v>98</v>
-      </c>
-      <c r="B84" t="s">
-        <v>99</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>338</v>
+      <c r="D84" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>239</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>54</v>
@@ -3943,60 +3942,60 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" t="s">
         <v>115</v>
-      </c>
-      <c r="B85" t="s">
-        <v>116</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>322</v>
+      <c r="D85" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="G85" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" t="s">
-        <v>332</v>
+      <c r="D86" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4004,7 +4003,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -4012,60 +4011,60 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" t="s">
         <v>141</v>
-      </c>
-      <c r="B88" t="s">
-        <v>142</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>355</v>
+      <c r="D88" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>239</v>
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="H88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
         <v>100</v>
-      </c>
-      <c r="B89" t="s">
-        <v>101</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" t="s">
-        <v>349</v>
+      <c r="D89" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="G89" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4083,9 +4082,12 @@
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:I92">
-    <sortCondition ref="D2:D92"/>
-    <sortCondition ref="B2:B92"/>
+  <sortState ref="A1:I89">
+    <sortCondition ref="E1:E89"/>
+    <sortCondition ref="F1:F89"/>
+    <sortCondition ref="G1:G89"/>
+    <sortCondition ref="H1:H89"/>
+    <sortCondition ref="I1:I89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -4125,16 +4127,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4152,10 +4154,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -4176,10 +4178,10 @@
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -4194,16 +4196,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G4" s="1">
         <v>8</v>
@@ -4218,16 +4220,16 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1">
         <v>9</v>
@@ -4239,22 +4241,22 @@
         <v>01010112022</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4266,16 +4268,16 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1">
         <v>22</v>
@@ -4290,16 +4292,16 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G8" s="1">
         <v>23</v>
@@ -4311,19 +4313,19 @@
         <v>01040423029</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1">
         <v>29</v>
@@ -4338,16 +4340,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>30</v>
@@ -4362,16 +4364,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="1">
         <v>31</v>
@@ -4386,16 +4388,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
         <v>31</v>
@@ -4410,7 +4412,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -4440,10 +4442,10 @@
         <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>41</v>
@@ -4464,10 +4466,10 @@
         <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1">
         <v>45</v>
@@ -4482,16 +4484,16 @@
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>46</v>
@@ -4506,16 +4508,16 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1">
         <v>49</v>
@@ -4536,10 +4538,10 @@
         <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>50</v>
@@ -4554,16 +4556,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>55</v>
@@ -4575,19 +4577,19 @@
         <v>01030332056</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="4">
         <v>56</v>
@@ -4602,16 +4604,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1">
         <v>56</v>
@@ -4626,16 +4628,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1">
         <v>56</v>
@@ -4650,16 +4652,16 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1">
         <v>57</v>
@@ -4680,10 +4682,10 @@
         <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1">
         <v>58</v>
@@ -4698,16 +4700,16 @@
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1">
         <v>58</v>
@@ -4719,19 +4721,19 @@
         <v>01050511060</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1">
         <v>60</v>
@@ -4752,10 +4754,10 @@
         <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1">
         <v>61</v>
@@ -4770,16 +4772,16 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1">
         <v>64</v>
@@ -4800,10 +4802,10 @@
         <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1">
         <v>67</v>
@@ -4818,16 +4820,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1">
         <v>67</v>
@@ -4842,16 +4844,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1">
         <v>70</v>
@@ -4866,10 +4868,10 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4896,10 +4898,10 @@
         <v>45</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="1">
         <v>74</v>
@@ -4914,16 +4916,16 @@
         <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1">
         <v>74</v>
@@ -4944,10 +4946,10 @@
         <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G35" s="1">
         <v>77</v>
@@ -4962,16 +4964,16 @@
         <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="1">
         <v>77</v>
@@ -4986,16 +4988,16 @@
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="1">
         <v>83</v>
@@ -5016,10 +5018,10 @@
         <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" s="1">
         <v>84</v>
@@ -5040,10 +5042,10 @@
         <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" s="1">
         <v>84</v>
@@ -5058,16 +5060,16 @@
         <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G40" s="1">
         <v>85</v>
@@ -5088,10 +5090,10 @@
         <v>45</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" s="1">
         <v>97</v>
@@ -5106,16 +5108,16 @@
         <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G42" s="1">
         <v>99</v>
@@ -5130,16 +5132,16 @@
         <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="1">
         <v>99</v>
@@ -5160,10 +5162,10 @@
         <v>45</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" s="1">
         <v>101</v>
@@ -5184,10 +5186,10 @@
         <v>42</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="1">
         <v>107</v>
@@ -5208,10 +5210,10 @@
         <v>45</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46" s="1">
         <v>109</v>
@@ -5226,16 +5228,16 @@
         <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G47" s="1">
         <v>110</v>
@@ -5256,10 +5258,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G48" s="1">
         <v>115</v>
@@ -5274,10 +5276,10 @@
         <v>39</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -5298,16 +5300,16 @@
         <v>24</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="1">
         <v>117</v>
@@ -5322,7 +5324,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -5346,16 +5348,16 @@
         <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G52" s="1">
         <v>119</v>
@@ -5376,10 +5378,10 @@
         <v>45</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G53" s="1">
         <v>127</v>
@@ -5400,10 +5402,10 @@
         <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" s="1">
         <v>128</v>
@@ -5418,16 +5420,16 @@
         <v>22</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" s="1">
         <v>133</v>
@@ -5442,10 +5444,10 @@
         <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" t="s">
         <v>269</v>
-      </c>
-      <c r="D56" t="s">
-        <v>272</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -5466,16 +5468,16 @@
         <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G57" s="1">
         <v>137</v>
@@ -5496,10 +5498,10 @@
         <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G58" s="1">
         <v>140</v>
@@ -5520,10 +5522,10 @@
         <v>36</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G59" s="1">
         <v>145</v>
@@ -5538,16 +5540,16 @@
         <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G60" s="1">
         <v>146</v>
@@ -5568,10 +5570,10 @@
         <v>31</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G61" s="1">
         <v>147</v>
@@ -5586,16 +5588,16 @@
         <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G62" s="1">
         <v>152</v>
@@ -5610,16 +5612,16 @@
         <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G63" s="1">
         <v>157</v>
@@ -5640,10 +5642,10 @@
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G64" s="1">
         <v>159</v>
@@ -5664,10 +5666,10 @@
         <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G65" s="1">
         <v>159</v>
@@ -5685,13 +5687,13 @@
         <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G66" s="1">
         <v>160</v>
@@ -5706,10 +5708,10 @@
         <v>39</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -5730,16 +5732,16 @@
         <v>24</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G68" s="1">
         <v>166</v>
@@ -5754,10 +5756,10 @@
         <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" t="s">
         <v>269</v>
-      </c>
-      <c r="D69" t="s">
-        <v>272</v>
       </c>
       <c r="E69" s="1">
         <v>3</v>
@@ -5781,13 +5783,13 @@
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G70" s="1">
         <v>172</v>
@@ -5802,16 +5804,16 @@
         <v>24</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G71" s="1">
         <v>172</v>
@@ -5826,16 +5828,16 @@
         <v>22</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G72" s="1">
         <v>172</v>
@@ -5850,16 +5852,16 @@
         <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G73" s="1">
         <v>174</v>
@@ -5874,16 +5876,16 @@
         <v>19</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G74" s="1">
         <v>175</v>
@@ -5898,16 +5900,16 @@
         <v>19</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G75" s="1">
         <v>180</v>
@@ -5922,16 +5924,16 @@
         <v>24</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G76" s="1">
         <v>181</v>
@@ -5952,10 +5954,10 @@
         <v>45</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G77" s="1">
         <v>184</v>
@@ -5970,16 +5972,16 @@
         <v>22</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G78" s="1">
         <v>184</v>
@@ -6000,10 +6002,10 @@
         <v>45</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G79" s="1">
         <v>185</v>
@@ -6018,16 +6020,16 @@
         <v>24</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G80" s="1">
         <v>185</v>
@@ -6042,16 +6044,16 @@
         <v>19</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G81" s="1">
         <v>188</v>
@@ -6066,16 +6068,16 @@
         <v>24</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G82" s="1">
         <v>194</v>
@@ -6090,16 +6092,16 @@
         <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G83" s="1">
         <v>197</v>
@@ -6111,19 +6113,19 @@
         <v>01020222200</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G84" s="1">
         <v>200</v>
@@ -31673,4 +31675,397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A56" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Menu/staff.xlsx
+++ b/Menu/staff.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Staff" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$1</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="369">
   <si>
     <t>Name</t>
   </si>
@@ -200,6 +199,9 @@
     <t>A09</t>
   </si>
   <si>
+    <t>02131211019</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -710,6 +712,9 @@
     <t>Mpai Mokebisa</t>
   </si>
   <si>
+    <t>9557</t>
+  </si>
+  <si>
     <t>Ramohotsi Mokoena</t>
   </si>
   <si>
@@ -878,42 +883,255 @@
     <t>EA</t>
   </si>
   <si>
+    <t>02140812001</t>
+  </si>
+  <si>
     <t>03260712003</t>
   </si>
   <si>
+    <t>04471012008</t>
+  </si>
+  <si>
+    <t>04380121009</t>
+  </si>
+  <si>
+    <t>01010112022</t>
+  </si>
+  <si>
+    <t>04450822022</t>
+  </si>
+  <si>
     <t>03270812023</t>
   </si>
   <si>
+    <t>01040423029</t>
+  </si>
+  <si>
+    <t>04351111030</t>
+  </si>
+  <si>
     <t>03210312031</t>
   </si>
   <si>
+    <t>04341111031</t>
+  </si>
+  <si>
+    <t>09790332039</t>
+  </si>
+  <si>
+    <t>04460932041</t>
+  </si>
+  <si>
+    <t>02090411045</t>
+  </si>
+  <si>
     <t>03241011046</t>
   </si>
   <si>
+    <t>04440722049</t>
+  </si>
+  <si>
+    <t>02131211050</t>
+  </si>
+  <si>
+    <t>04301111055</t>
+  </si>
+  <si>
+    <t>01030332056</t>
+  </si>
+  <si>
+    <t>04421111056</t>
+  </si>
+  <si>
+    <t>04471211056</t>
+  </si>
+  <si>
+    <t>04411111057</t>
+  </si>
+  <si>
+    <t>02131211058</t>
+  </si>
+  <si>
+    <t>04371111058</t>
+  </si>
+  <si>
+    <t>01050511060</t>
+  </si>
+  <si>
     <t>03200232061</t>
   </si>
   <si>
+    <t>04361111064</t>
+  </si>
+  <si>
+    <t>02131211067</t>
+  </si>
+  <si>
     <t>03281111067</t>
   </si>
   <si>
+    <t>02171013070</t>
+  </si>
+  <si>
+    <t>09770132071</t>
+  </si>
+  <si>
+    <t>02131211074</t>
+  </si>
+  <si>
+    <t>02161311074</t>
+  </si>
+  <si>
     <t>03230512077</t>
   </si>
   <si>
+    <t>04321111077</t>
+  </si>
+  <si>
+    <t>02110511083</t>
+  </si>
+  <si>
+    <t>02081211084</t>
+  </si>
+  <si>
+    <t>02131211084</t>
+  </si>
+  <si>
+    <t>02110612085</t>
+  </si>
+  <si>
+    <t>02131211097</t>
+  </si>
+  <si>
+    <t>04401111099</t>
+  </si>
+  <si>
+    <t>04430613099</t>
+  </si>
+  <si>
+    <t>02131211101</t>
+  </si>
+  <si>
+    <t>02070222107</t>
+  </si>
+  <si>
+    <t>02131211109</t>
+  </si>
+  <si>
     <t>03271111110</t>
   </si>
   <si>
+    <t>02140812115</t>
+  </si>
+  <si>
+    <t>09780232116</t>
+  </si>
+  <si>
+    <t>02171013117</t>
+  </si>
+  <si>
+    <t>09790332118</t>
+  </si>
+  <si>
+    <t>04311111119</t>
+  </si>
+  <si>
+    <t>02131211127</t>
+  </si>
+  <si>
+    <t>02151311128</t>
+  </si>
+  <si>
     <t>03250622133</t>
   </si>
   <si>
+    <t>09800432134</t>
+  </si>
+  <si>
+    <t>02160912137</t>
+  </si>
+  <si>
+    <t>02141211140</t>
+  </si>
+  <si>
+    <t>02151311145</t>
+  </si>
+  <si>
+    <t>04391121146</t>
+  </si>
+  <si>
     <t>03220413147</t>
   </si>
   <si>
+    <t>04420513152</t>
+  </si>
+  <si>
+    <t>04331111157</t>
+  </si>
+  <si>
+    <t>02060132159</t>
+  </si>
+  <si>
+    <t>02131211159</t>
+  </si>
+  <si>
+    <t>02080322160</t>
+  </si>
+  <si>
+    <t>09790531162</t>
+  </si>
+  <si>
+    <t>02120711166</t>
+  </si>
+  <si>
+    <t>09800432167</t>
+  </si>
+  <si>
+    <t>02100511172</t>
+  </si>
+  <si>
+    <t>02161311172</t>
+  </si>
+  <si>
     <t>03291111172</t>
   </si>
   <si>
+    <t>04400313174</t>
+  </si>
+  <si>
+    <t>04390232175</t>
+  </si>
+  <si>
+    <t>04410412180</t>
+  </si>
+  <si>
+    <t>02160912181</t>
+  </si>
+  <si>
+    <t>02141211184</t>
+  </si>
+  <si>
     <t>03190122184</t>
   </si>
   <si>
+    <t>02131211185</t>
+  </si>
+  <si>
+    <t>02181113185</t>
+  </si>
+  <si>
+    <t>04381111188</t>
+  </si>
+  <si>
+    <t>02181113194</t>
+  </si>
+  <si>
+    <t>04431111197</t>
+  </si>
+  <si>
+    <t>01020222200</t>
+  </si>
+  <si>
     <t>3039</t>
   </si>
   <si>
@@ -926,238 +1144,18 @@
     <t>Ivy Makoa</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>03190122026</t>
-  </si>
-  <si>
-    <t>03190122043</t>
-  </si>
-  <si>
-    <t>03190122045</t>
-  </si>
-  <si>
-    <t>03190122048</t>
-  </si>
-  <si>
-    <t>03190122091</t>
-  </si>
-  <si>
-    <t>03190122097</t>
-  </si>
-  <si>
-    <t>03200232107</t>
-  </si>
-  <si>
-    <t>03200232128</t>
-  </si>
-  <si>
-    <t>03200232132</t>
-  </si>
-  <si>
-    <t>03200232154</t>
-  </si>
-  <si>
-    <t>03200232167</t>
-  </si>
-  <si>
-    <t>03200232185</t>
-  </si>
-  <si>
-    <t>03210312015</t>
-  </si>
-  <si>
-    <t>03210312041</t>
-  </si>
-  <si>
-    <t>03210312049</t>
-  </si>
-  <si>
-    <t>03210312052</t>
-  </si>
-  <si>
-    <t>03210312074</t>
-  </si>
-  <si>
-    <t>03210312109</t>
-  </si>
-  <si>
-    <t>03220413028</t>
-  </si>
-  <si>
-    <t>03220413033</t>
-  </si>
-  <si>
-    <t>03220413085</t>
-  </si>
-  <si>
-    <t>03220413112</t>
-  </si>
-  <si>
-    <t>03220413158</t>
-  </si>
-  <si>
-    <t>03220413192</t>
-  </si>
-  <si>
-    <t>03230512036</t>
-  </si>
-  <si>
-    <t>03230512047</t>
-  </si>
-  <si>
-    <t>03230512054</t>
-  </si>
-  <si>
-    <t>03230512093</t>
-  </si>
-  <si>
-    <t>03230512131</t>
-  </si>
-  <si>
-    <t>03230512143</t>
-  </si>
-  <si>
-    <t>03241011002</t>
-  </si>
-  <si>
-    <t>03241011022</t>
-  </si>
-  <si>
-    <t>03241011027</t>
-  </si>
-  <si>
-    <t>03241011053</t>
-  </si>
-  <si>
-    <t>03241011121</t>
-  </si>
-  <si>
-    <t>03241011126</t>
-  </si>
-  <si>
-    <t>03250622037</t>
-  </si>
-  <si>
-    <t>03250622065</t>
-  </si>
-  <si>
-    <t>03250622069</t>
-  </si>
-  <si>
-    <t>03250622087</t>
-  </si>
-  <si>
-    <t>03250622114</t>
-  </si>
-  <si>
-    <t>03250622187</t>
-  </si>
-  <si>
-    <t>03250622189</t>
-  </si>
-  <si>
-    <t>03260712001</t>
-  </si>
-  <si>
-    <t>03260712042</t>
-  </si>
-  <si>
-    <t>03260712060</t>
-  </si>
-  <si>
-    <t>03260712062</t>
-  </si>
-  <si>
-    <t>03260712088</t>
-  </si>
-  <si>
-    <t>03260712164</t>
-  </si>
-  <si>
-    <t>03260712170</t>
-  </si>
-  <si>
-    <t>03270812040</t>
-  </si>
-  <si>
-    <t>03270812056</t>
-  </si>
-  <si>
-    <t>03270812057</t>
-  </si>
-  <si>
-    <t>03270812105</t>
-  </si>
-  <si>
-    <t>03270812127</t>
-  </si>
-  <si>
-    <t>03270812186</t>
-  </si>
-  <si>
-    <t>03271111051</t>
-  </si>
-  <si>
-    <t>03271111106</t>
-  </si>
-  <si>
-    <t>03271111119</t>
-  </si>
-  <si>
-    <t>03271111144</t>
-  </si>
-  <si>
-    <t>03271111173</t>
-  </si>
-  <si>
-    <t>03271111199</t>
-  </si>
-  <si>
-    <t>03281111005</t>
-  </si>
-  <si>
-    <t>03281111018</t>
-  </si>
-  <si>
-    <t>03281111063</t>
-  </si>
-  <si>
-    <t>03281111073</t>
-  </si>
-  <si>
-    <t>03281111095</t>
-  </si>
-  <si>
-    <t>03281111123</t>
-  </si>
-  <si>
-    <t>03291111004</t>
-  </si>
-  <si>
-    <t>03291111010</t>
-  </si>
-  <si>
-    <t>03291111058</t>
-  </si>
-  <si>
-    <t>03291111084</t>
-  </si>
-  <si>
-    <t>03291111150</t>
-  </si>
-  <si>
-    <t>03291111200</t>
+    <t>02131211001</t>
+  </si>
+  <si>
+    <t>02131211099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1196,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1204,7 +1202,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1506,8 +1503,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="A2:I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1515,7 +1514,7 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1553,25 +1552,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>333</v>
+      <c r="D2" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>54</v>
@@ -1582,28 +1581,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>340</v>
+      <c r="D3" t="s">
+        <v>320</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>54</v>
@@ -1611,45 +1610,45 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" t="s">
-        <v>267</v>
+      <c r="D4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -1661,33 +1660,33 @@
         <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>334</v>
+      <c r="D6" t="s">
+        <v>355</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>54</v>
@@ -1698,28 +1697,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>54</v>
@@ -1727,86 +1726,86 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>300</v>
+      <c r="D8" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>356</v>
+      <c r="D9" t="s">
+        <v>316</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>242</v>
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>345</v>
+      <c r="D10" t="s">
+        <v>322</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>54</v>
@@ -1814,57 +1813,57 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>352</v>
+      <c r="D11" t="s">
+        <v>361</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>242</v>
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>348</v>
+      <c r="D12" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G12" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>54</v>
@@ -1872,16 +1871,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -1893,113 +1892,113 @@
         <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>360</v>
+      <c r="D14" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>243</v>
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>367</v>
+      <c r="D15" t="s">
+        <v>349</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>200</v>
+      <c r="A16" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>201</v>
       </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17">
+      <c r="D17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1">
         <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -2007,17 +2006,17 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>299</v>
+      <c r="D18" t="s">
+        <v>311</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>54</v>
@@ -2028,57 +2027,57 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>359</v>
+      <c r="D19" t="s">
+        <v>314</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>303</v>
+      <c r="D20" t="s">
+        <v>312</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>54</v>
@@ -2086,144 +2085,144 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>354</v>
+      <c r="D21" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>272</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>364</v>
+      <c r="D22" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>244</v>
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>310</v>
+      <c r="D23" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>239</v>
+        <v>24</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>314</v>
+      <c r="D24" t="s">
+        <v>319</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>319</v>
+      <c r="D25" t="s">
+        <v>315</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>54</v>
@@ -2231,28 +2230,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>325</v>
+      <c r="D26" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>53</v>
@@ -2260,25 +2259,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>332</v>
+      <c r="D27" t="s">
+        <v>357</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>54</v>
@@ -2289,57 +2288,57 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>295</v>
+      <c r="D28" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>237</v>
+        <v>19</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>305</v>
+      <c r="D29" t="s">
+        <v>330</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>54</v>
@@ -2347,57 +2346,57 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>338</v>
+      <c r="D30" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>311</v>
+      <c r="D31" t="s">
+        <v>359</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>54</v>
@@ -2405,65 +2404,65 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>318</v>
+      <c r="D32" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>320</v>
+      <c r="D33" t="s">
+        <v>351</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -2472,65 +2471,65 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>329</v>
+      <c r="D35" t="s">
+        <v>353</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>240</v>
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -2542,65 +2541,65 @@
         <v>48</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>336</v>
+      <c r="D37" t="s">
+        <v>352</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>255</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>344</v>
+      <c r="D38" t="s">
+        <v>290</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>251</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>54</v>
@@ -2608,57 +2607,57 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>355</v>
+      <c r="D39" t="s">
+        <v>288</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>242</v>
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>353</v>
+      <c r="D40" t="s">
+        <v>309</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>242</v>
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>53</v>
@@ -2666,86 +2665,86 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>350</v>
+      <c r="D41" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>357</v>
+      <c r="D42" t="s">
+        <v>317</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>347</v>
+      <c r="D43" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>54</v>
@@ -2753,147 +2752,147 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>349</v>
+      <c r="D44" t="s">
+        <v>329</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>242</v>
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>267</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>362</v>
+      <c r="D45" t="s">
+        <v>310</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="G45" t="s">
-        <v>268</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>53</v>
+        <v>273</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>365</v>
+      <c r="D46" t="s">
+        <v>344</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2901,83 +2900,83 @@
         <v>8247</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>298</v>
+      <c r="D49" t="s">
+        <v>360</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>361</v>
+      <c r="D50" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>243</v>
+        <v>19</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>304</v>
+      <c r="D51" t="s">
+        <v>332</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>54</v>
@@ -2985,57 +2984,57 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>366</v>
+      <c r="D52" t="s">
+        <v>345</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="G52" t="s">
-        <v>268</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>53</v>
+        <v>266</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>312</v>
+      <c r="D53" t="s">
+        <v>346</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>54</v>
@@ -3043,83 +3042,83 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>368</v>
+      <c r="D54" t="s">
+        <v>292</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>313</v>
+      <c r="D55" t="s">
+        <v>358</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>296</v>
+      <c r="D56" t="s">
+        <v>306</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>54</v>
@@ -3130,45 +3129,45 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>54</v>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="1">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -3180,152 +3179,152 @@
         <v>38</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G59" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>302</v>
+      <c r="D61" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62">
-        <v>9557</v>
+      <c r="A62" t="s">
+        <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>337</v>
+      <c r="D62" t="s">
+        <v>347</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>268</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>54</v>
+        <v>271</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>307</v>
+      <c r="D63" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" t="s">
-        <v>239</v>
+        <v>19</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>54</v>
@@ -3333,60 +3332,60 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>328</v>
+      <c r="D64" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>317</v>
+      <c r="D65" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3394,25 +3393,25 @@
         <v>2928</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>301</v>
+      <c r="D66" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" t="s">
-        <v>37</v>
+        <v>228</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>54</v>
@@ -3420,36 +3419,36 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>322</v>
+      <c r="D67" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -3458,106 +3457,106 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>331</v>
+      <c r="D69" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G70" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>343</v>
+      <c r="D71" t="s">
+        <v>296</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>54</v>
@@ -3565,115 +3564,115 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>308</v>
+      <c r="D72" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" t="s">
-        <v>239</v>
+        <v>228</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>351</v>
+      <c r="D73" t="s">
+        <v>307</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>242</v>
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>316</v>
+      <c r="D74" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>346</v>
+      <c r="D75" t="s">
+        <v>302</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>54</v>
@@ -3681,60 +3680,60 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G76" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>358</v>
+      <c r="D77" t="s">
+        <v>324</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" t="s">
-        <v>243</v>
+        <v>24</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3742,80 +3741,80 @@
         <v>7847</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>363</v>
+      <c r="D78" t="s">
+        <v>318</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G78" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>327</v>
+      <c r="D79" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="G79" t="s">
-        <v>267</v>
+        <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>297</v>
+      <c r="D80" t="s">
+        <v>293</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>54</v>
@@ -3826,115 +3825,115 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>324</v>
+      <c r="D81" t="s">
+        <v>362</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>306</v>
+      <c r="D82" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>342</v>
+      <c r="D83" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>54</v>
+        <v>271</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+      <c r="I83" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>309</v>
+      <c r="D84" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" t="s">
-        <v>239</v>
+        <v>24</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>54</v>
@@ -3942,60 +3941,60 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>335</v>
+      <c r="D85" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>315</v>
+      <c r="D86" t="s">
+        <v>331</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="F86" t="s">
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4003,7 +4002,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -4011,60 +4010,60 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>321</v>
+      <c r="D88" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>330</v>
+      <c r="D89" t="s">
+        <v>348</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>240</v>
+        <v>24</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4082,12 +4081,9 @@
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A1:I89">
-    <sortCondition ref="E1:E89"/>
-    <sortCondition ref="F1:F89"/>
-    <sortCondition ref="G1:G89"/>
-    <sortCondition ref="H1:H89"/>
-    <sortCondition ref="I1:I89"/>
+  <sortState ref="A2:I92">
+    <sortCondition ref="D2:D92"/>
+    <sortCondition ref="B2:B92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -4127,16 +4123,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4154,10 +4150,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -4178,10 +4174,10 @@
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -4196,16 +4192,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1">
         <v>8</v>
@@ -4220,16 +4216,16 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G5" s="1">
         <v>9</v>
@@ -4241,22 +4237,22 @@
         <v>01010112022</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4268,16 +4264,16 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1">
         <v>22</v>
@@ -4292,16 +4288,16 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1">
         <v>23</v>
@@ -4313,19 +4309,19 @@
         <v>01040423029</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1">
         <v>29</v>
@@ -4340,16 +4336,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1">
         <v>30</v>
@@ -4364,16 +4360,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1">
         <v>31</v>
@@ -4388,16 +4384,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1">
         <v>31</v>
@@ -4412,7 +4408,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -4442,10 +4438,10 @@
         <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1">
         <v>41</v>
@@ -4466,10 +4462,10 @@
         <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1">
         <v>45</v>
@@ -4484,16 +4480,16 @@
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1">
         <v>46</v>
@@ -4508,16 +4504,16 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1">
         <v>49</v>
@@ -4538,10 +4534,10 @@
         <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1">
         <v>50</v>
@@ -4556,16 +4552,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1">
         <v>55</v>
@@ -4577,19 +4573,19 @@
         <v>01030332056</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="4">
         <v>56</v>
@@ -4604,16 +4600,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1">
         <v>56</v>
@@ -4628,16 +4624,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1">
         <v>56</v>
@@ -4652,16 +4648,16 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1">
         <v>57</v>
@@ -4682,10 +4678,10 @@
         <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1">
         <v>58</v>
@@ -4700,16 +4696,16 @@
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1">
         <v>58</v>
@@ -4721,19 +4717,19 @@
         <v>01050511060</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1">
         <v>60</v>
@@ -4754,10 +4750,10 @@
         <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="1">
         <v>61</v>
@@ -4772,16 +4768,16 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1">
         <v>64</v>
@@ -4802,10 +4798,10 @@
         <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1">
         <v>67</v>
@@ -4820,16 +4816,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G30" s="1">
         <v>67</v>
@@ -4844,16 +4840,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G31" s="1">
         <v>70</v>
@@ -4868,10 +4864,10 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4898,10 +4894,10 @@
         <v>45</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G33" s="1">
         <v>74</v>
@@ -4916,16 +4912,16 @@
         <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1">
         <v>74</v>
@@ -4946,10 +4942,10 @@
         <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1">
         <v>77</v>
@@ -4964,16 +4960,16 @@
         <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G36" s="1">
         <v>77</v>
@@ -4988,16 +4984,16 @@
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G37" s="1">
         <v>83</v>
@@ -5018,10 +5014,10 @@
         <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="1">
         <v>84</v>
@@ -5042,10 +5038,10 @@
         <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G39" s="1">
         <v>84</v>
@@ -5060,16 +5056,16 @@
         <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" s="1">
         <v>85</v>
@@ -5090,10 +5086,10 @@
         <v>45</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G41" s="1">
         <v>97</v>
@@ -5108,16 +5104,16 @@
         <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G42" s="1">
         <v>99</v>
@@ -5132,16 +5128,16 @@
         <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G43" s="1">
         <v>99</v>
@@ -5162,10 +5158,10 @@
         <v>45</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G44" s="1">
         <v>101</v>
@@ -5186,10 +5182,10 @@
         <v>42</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G45" s="1">
         <v>107</v>
@@ -5210,10 +5206,10 @@
         <v>45</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G46" s="1">
         <v>109</v>
@@ -5228,16 +5224,16 @@
         <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G47" s="1">
         <v>110</v>
@@ -5258,10 +5254,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G48" s="1">
         <v>115</v>
@@ -5276,10 +5272,10 @@
         <v>39</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -5300,16 +5296,16 @@
         <v>24</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G50" s="1">
         <v>117</v>
@@ -5324,7 +5320,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -5348,16 +5344,16 @@
         <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G52" s="1">
         <v>119</v>
@@ -5378,10 +5374,10 @@
         <v>45</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G53" s="1">
         <v>127</v>
@@ -5402,10 +5398,10 @@
         <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G54" s="1">
         <v>128</v>
@@ -5420,16 +5416,16 @@
         <v>22</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G55" s="1">
         <v>133</v>
@@ -5444,10 +5440,10 @@
         <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -5468,16 +5464,16 @@
         <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G57" s="1">
         <v>137</v>
@@ -5498,10 +5494,10 @@
         <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G58" s="1">
         <v>140</v>
@@ -5522,10 +5518,10 @@
         <v>36</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G59" s="1">
         <v>145</v>
@@ -5540,16 +5536,16 @@
         <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G60" s="1">
         <v>146</v>
@@ -5570,10 +5566,10 @@
         <v>31</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G61" s="1">
         <v>147</v>
@@ -5588,16 +5584,16 @@
         <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G62" s="1">
         <v>152</v>
@@ -5612,16 +5608,16 @@
         <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G63" s="1">
         <v>157</v>
@@ -5642,10 +5638,10 @@
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G64" s="1">
         <v>159</v>
@@ -5666,10 +5662,10 @@
         <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G65" s="1">
         <v>159</v>
@@ -5687,13 +5683,13 @@
         <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G66" s="1">
         <v>160</v>
@@ -5708,10 +5704,10 @@
         <v>39</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -5732,16 +5728,16 @@
         <v>24</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G68" s="1">
         <v>166</v>
@@ -5756,10 +5752,10 @@
         <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E69" s="1">
         <v>3</v>
@@ -5783,13 +5779,13 @@
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G70" s="1">
         <v>172</v>
@@ -5804,16 +5800,16 @@
         <v>24</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G71" s="1">
         <v>172</v>
@@ -5828,16 +5824,16 @@
         <v>22</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G72" s="1">
         <v>172</v>
@@ -5852,16 +5848,16 @@
         <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G73" s="1">
         <v>174</v>
@@ -5876,16 +5872,16 @@
         <v>19</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G74" s="1">
         <v>175</v>
@@ -5900,16 +5896,16 @@
         <v>19</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G75" s="1">
         <v>180</v>
@@ -5924,16 +5920,16 @@
         <v>24</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G76" s="1">
         <v>181</v>
@@ -5954,10 +5950,10 @@
         <v>45</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G77" s="1">
         <v>184</v>
@@ -5972,16 +5968,16 @@
         <v>22</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G78" s="1">
         <v>184</v>
@@ -6002,10 +5998,10 @@
         <v>45</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G79" s="1">
         <v>185</v>
@@ -6020,16 +6016,16 @@
         <v>24</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G80" s="1">
         <v>185</v>
@@ -6044,16 +6040,16 @@
         <v>19</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G81" s="1">
         <v>188</v>
@@ -6068,16 +6064,16 @@
         <v>24</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G82" s="1">
         <v>194</v>
@@ -6092,16 +6088,16 @@
         <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G83" s="1">
         <v>197</v>
@@ -6113,19 +6109,19 @@
         <v>01020222200</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G84" s="1">
         <v>200</v>
@@ -31675,397 +31671,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A56" sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="7">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="7">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="7">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="7">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="7">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="7">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="7">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="7">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="7">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="7">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="7">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="7">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="7">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="7">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="7">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="7">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="7">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="7">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="7">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="7">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="7">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Menu/staff.xlsx
+++ b/Menu/staff.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Mantsane Monaheng</t>
-  </si>
-  <si>
-    <t>Letuka Nkhauli</t>
   </si>
   <si>
     <t>EA_CODE</t>
@@ -232,490 +229,13 @@
     <t>45</t>
   </si>
   <si>
-    <t>0111</t>
-  </si>
-  <si>
-    <t>Mokoena Makenete</t>
-  </si>
-  <si>
-    <t>0278</t>
-  </si>
-  <si>
-    <t>Matela Kamoho</t>
-  </si>
-  <si>
-    <t>0715</t>
-  </si>
-  <si>
-    <t>Lintle Sereba</t>
-  </si>
-  <si>
-    <t>0741</t>
-  </si>
-  <si>
-    <t>Thabiso Nchakha</t>
-  </si>
-  <si>
-    <t>0762</t>
-  </si>
-  <si>
-    <t>Seoja Moorosi Ntsebe</t>
-  </si>
-  <si>
-    <t>0875</t>
-  </si>
-  <si>
-    <t>Malehloa Moalosi</t>
-  </si>
-  <si>
     <t>0882</t>
-  </si>
-  <si>
-    <t>0920</t>
-  </si>
-  <si>
-    <t>Joshua Ramots'eoa</t>
-  </si>
-  <si>
-    <t>0925</t>
-  </si>
-  <si>
-    <t>Lipula Maseru</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>Teboho E. Moqasa</t>
-  </si>
-  <si>
-    <t>1373</t>
-  </si>
-  <si>
-    <t>Mamotaung Motake</t>
-  </si>
-  <si>
-    <t>1429</t>
-  </si>
-  <si>
-    <t>Sellane Khati</t>
-  </si>
-  <si>
-    <t>1434</t>
-  </si>
-  <si>
-    <t>Monyetsane Monyetsane</t>
-  </si>
-  <si>
-    <t>1463</t>
-  </si>
-  <si>
-    <t>Setlokoane Nkhasi</t>
-  </si>
-  <si>
-    <t>1558</t>
-  </si>
-  <si>
-    <t>Alex Mpharoane</t>
-  </si>
-  <si>
-    <t>1661</t>
-  </si>
-  <si>
-    <t>Ramabele Lekoatsa</t>
-  </si>
-  <si>
-    <t>1798</t>
-  </si>
-  <si>
-    <t>Motlatsi Monoane</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>Leloma Thomas Nts'inyi</t>
-  </si>
-  <si>
-    <t>1814</t>
-  </si>
-  <si>
-    <t>Ts'ekelo Sello</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
-    <t>Zwelithini Chetane</t>
-  </si>
-  <si>
-    <t>1893</t>
-  </si>
-  <si>
-    <t>Lebesa Sekhobe</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>Lefera Motleleng</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>Seabata Ramots'o</t>
-  </si>
-  <si>
-    <t>2318</t>
-  </si>
-  <si>
-    <t>Rankoebe Lekoatsa</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>Sithole Mothepu</t>
-  </si>
-  <si>
-    <t>2646</t>
-  </si>
-  <si>
-    <t>Renang Lieta</t>
-  </si>
-  <si>
-    <t>Rethabile Mothae</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>Tselanyane Lebesa</t>
-  </si>
-  <si>
-    <t>3033</t>
-  </si>
-  <si>
-    <t>Kuena Nchapi</t>
-  </si>
-  <si>
-    <t>3041</t>
-  </si>
-  <si>
-    <t>Teboho Ts'ots'ots'o</t>
-  </si>
-  <si>
-    <t>3146</t>
-  </si>
-  <si>
-    <t>Phahla Phahla</t>
-  </si>
-  <si>
-    <t>3206</t>
-  </si>
-  <si>
-    <t>Mamoeketsi Letsie</t>
-  </si>
-  <si>
-    <t>3282</t>
-  </si>
-  <si>
-    <t>Lehlehla Seeiso</t>
-  </si>
-  <si>
-    <t>3285</t>
-  </si>
-  <si>
-    <t>Limpho Mohapi</t>
-  </si>
-  <si>
-    <t>3431</t>
-  </si>
-  <si>
-    <t>Mahlomola Rakauoane</t>
-  </si>
-  <si>
-    <t>3434</t>
-  </si>
-  <si>
-    <t>Motlalekhosi Lerotholi</t>
-  </si>
-  <si>
-    <t>3482</t>
-  </si>
-  <si>
-    <t>Topollo Makoae</t>
-  </si>
-  <si>
-    <t>3637</t>
-  </si>
-  <si>
-    <t>Sechaba Leleka</t>
-  </si>
-  <si>
-    <t>3706</t>
-  </si>
-  <si>
-    <t>Thibello Rantlhoisi</t>
-  </si>
-  <si>
-    <t>3959</t>
-  </si>
-  <si>
-    <t>Relebohile Matela</t>
-  </si>
-  <si>
-    <t>4084</t>
-  </si>
-  <si>
-    <t>Ts'okolo Majara</t>
-  </si>
-  <si>
-    <t>4109</t>
-  </si>
-  <si>
-    <t>Humane Mokotjo</t>
-  </si>
-  <si>
-    <t>4138</t>
-  </si>
-  <si>
-    <t>Motheba Tsunyane</t>
-  </si>
-  <si>
-    <t>4204</t>
-  </si>
-  <si>
-    <t>Makefuoe Mofoka</t>
-  </si>
-  <si>
-    <t>4377</t>
-  </si>
-  <si>
-    <t>Mpolokeng Lekoatsa</t>
-  </si>
-  <si>
-    <t>4463</t>
-  </si>
-  <si>
-    <t>Mamoliehi Masasa</t>
-  </si>
-  <si>
-    <t>4571</t>
-  </si>
-  <si>
-    <t>4723</t>
-  </si>
-  <si>
-    <t>Mantoa Mabele</t>
-  </si>
-  <si>
-    <t>Motlalepula Fako</t>
-  </si>
-  <si>
-    <t>5551</t>
-  </si>
-  <si>
-    <t>Lebeoana Mashabe</t>
-  </si>
-  <si>
-    <t>5747</t>
-  </si>
-  <si>
-    <t>Thapelo Hlahane</t>
-  </si>
-  <si>
-    <t>6056</t>
-  </si>
-  <si>
-    <t>Nkhereanye Machake</t>
-  </si>
-  <si>
-    <t>6119</t>
-  </si>
-  <si>
-    <t>Nthatisi Lenka</t>
-  </si>
-  <si>
-    <t>6407</t>
-  </si>
-  <si>
-    <t>Napo Lehata</t>
-  </si>
-  <si>
-    <t>6496</t>
-  </si>
-  <si>
-    <t>Sepoqoane Sepoqoane</t>
-  </si>
-  <si>
-    <t>6542</t>
-  </si>
-  <si>
-    <t>Sekaleli Mokhampanyane</t>
-  </si>
-  <si>
-    <t>6546</t>
-  </si>
-  <si>
-    <t>Moferefere Mahlathe</t>
-  </si>
-  <si>
-    <t>6711</t>
-  </si>
-  <si>
-    <t>Mosothoane Makoae</t>
   </si>
   <si>
     <t>6766</t>
   </si>
   <si>
-    <t>6866</t>
-  </si>
-  <si>
-    <t>Limpho Mathola</t>
-  </si>
-  <si>
-    <t>7028</t>
-  </si>
-  <si>
-    <t>Fusi Theoha</t>
-  </si>
-  <si>
-    <t>7072</t>
-  </si>
-  <si>
-    <t>Lieketseng Mokhahlane</t>
-  </si>
-  <si>
-    <t>7202</t>
-  </si>
-  <si>
-    <t>Mahlatsi Ntau</t>
-  </si>
-  <si>
-    <t>7419</t>
-  </si>
-  <si>
-    <t>Khotso Moahloli</t>
-  </si>
-  <si>
-    <t>7559</t>
-  </si>
-  <si>
-    <t>Molefi Monare</t>
-  </si>
-  <si>
-    <t>Thabang Seforo</t>
-  </si>
-  <si>
-    <t>8070</t>
-  </si>
-  <si>
-    <t>Mabakoena Molupe</t>
-  </si>
-  <si>
-    <t>8108</t>
-  </si>
-  <si>
-    <t>Buasono Klass</t>
-  </si>
-  <si>
-    <t>8150</t>
-  </si>
-  <si>
-    <t>Methe G. Mofoka</t>
-  </si>
-  <si>
-    <t>8312</t>
-  </si>
-  <si>
-    <t>Pontso Hlalele</t>
-  </si>
-  <si>
-    <t>8462</t>
-  </si>
-  <si>
-    <t>Mechele Moshoeshoe</t>
-  </si>
-  <si>
-    <t>8470</t>
-  </si>
-  <si>
-    <t>Matlhoeko Thaisi</t>
-  </si>
-  <si>
     <t>8713</t>
-  </si>
-  <si>
-    <t>Letsie Maama</t>
-  </si>
-  <si>
-    <t>8747</t>
-  </si>
-  <si>
-    <t>Mpati Ralerata</t>
-  </si>
-  <si>
-    <t>8830</t>
-  </si>
-  <si>
-    <t>Thakane Nthunya</t>
-  </si>
-  <si>
-    <t>8868</t>
-  </si>
-  <si>
-    <t>Mosito Rakauoane</t>
-  </si>
-  <si>
-    <t>8969</t>
-  </si>
-  <si>
-    <t>Malineo Mofolo</t>
-  </si>
-  <si>
-    <t>8980</t>
-  </si>
-  <si>
-    <t>Tsepo Tsimane</t>
-  </si>
-  <si>
-    <t>9061</t>
-  </si>
-  <si>
-    <t>Masoili Motlomelo</t>
-  </si>
-  <si>
-    <t>9414</t>
-  </si>
-  <si>
-    <t>Motloang Behle</t>
-  </si>
-  <si>
-    <t>9427</t>
-  </si>
-  <si>
-    <t>Motema Mathang</t>
-  </si>
-  <si>
-    <t>9529</t>
-  </si>
-  <si>
-    <t>Motloang Lemeko</t>
-  </si>
-  <si>
-    <t>9545</t>
-  </si>
-  <si>
-    <t>Mpai Mokebisa</t>
-  </si>
-  <si>
-    <t>9557</t>
-  </si>
-  <si>
-    <t>Ramohotsi Mokoena</t>
   </si>
   <si>
     <t>Tso'ana Mantata</t>
@@ -886,94 +406,10 @@
     <t>02140812001</t>
   </si>
   <si>
-    <t>03260712003</t>
-  </si>
-  <si>
-    <t>04471012008</t>
-  </si>
-  <si>
-    <t>04380121009</t>
-  </si>
-  <si>
-    <t>01010112022</t>
-  </si>
-  <si>
-    <t>04450822022</t>
-  </si>
-  <si>
-    <t>03270812023</t>
-  </si>
-  <si>
-    <t>01040423029</t>
-  </si>
-  <si>
-    <t>04351111030</t>
-  </si>
-  <si>
-    <t>03210312031</t>
-  </si>
-  <si>
-    <t>04341111031</t>
-  </si>
-  <si>
-    <t>09790332039</t>
-  </si>
-  <si>
-    <t>04460932041</t>
-  </si>
-  <si>
-    <t>02090411045</t>
-  </si>
-  <si>
-    <t>03241011046</t>
-  </si>
-  <si>
-    <t>04440722049</t>
-  </si>
-  <si>
-    <t>02131211050</t>
-  </si>
-  <si>
-    <t>04301111055</t>
-  </si>
-  <si>
-    <t>01030332056</t>
-  </si>
-  <si>
-    <t>04421111056</t>
-  </si>
-  <si>
-    <t>04471211056</t>
-  </si>
-  <si>
-    <t>04411111057</t>
-  </si>
-  <si>
     <t>02131211058</t>
   </si>
   <si>
-    <t>04371111058</t>
-  </si>
-  <si>
-    <t>01050511060</t>
-  </si>
-  <si>
-    <t>03200232061</t>
-  </si>
-  <si>
-    <t>04361111064</t>
-  </si>
-  <si>
-    <t>02131211067</t>
-  </si>
-  <si>
-    <t>03281111067</t>
-  </si>
-  <si>
     <t>02171013070</t>
-  </si>
-  <si>
-    <t>09770132071</t>
   </si>
   <si>
     <t>02131211074</t>
@@ -982,73 +418,10 @@
     <t>02161311074</t>
   </si>
   <si>
-    <t>03230512077</t>
-  </si>
-  <si>
-    <t>04321111077</t>
-  </si>
-  <si>
-    <t>02110511083</t>
-  </si>
-  <si>
-    <t>02081211084</t>
-  </si>
-  <si>
-    <t>02131211084</t>
-  </si>
-  <si>
-    <t>02110612085</t>
-  </si>
-  <si>
     <t>02131211097</t>
   </si>
   <si>
-    <t>04401111099</t>
-  </si>
-  <si>
-    <t>04430613099</t>
-  </si>
-  <si>
-    <t>02131211101</t>
-  </si>
-  <si>
-    <t>02070222107</t>
-  </si>
-  <si>
     <t>02131211109</t>
-  </si>
-  <si>
-    <t>03271111110</t>
-  </si>
-  <si>
-    <t>02140812115</t>
-  </si>
-  <si>
-    <t>09780232116</t>
-  </si>
-  <si>
-    <t>02171013117</t>
-  </si>
-  <si>
-    <t>09790332118</t>
-  </si>
-  <si>
-    <t>04311111119</t>
-  </si>
-  <si>
-    <t>02131211127</t>
-  </si>
-  <si>
-    <t>02151311128</t>
-  </si>
-  <si>
-    <t>03250622133</t>
-  </si>
-  <si>
-    <t>09800432134</t>
-  </si>
-  <si>
-    <t>02160912137</t>
   </si>
   <si>
     <t>02141211140</t>
@@ -1057,97 +430,79 @@
     <t>02151311145</t>
   </si>
   <si>
-    <t>04391121146</t>
-  </si>
-  <si>
-    <t>03220413147</t>
-  </si>
-  <si>
-    <t>04420513152</t>
-  </si>
-  <si>
-    <t>04331111157</t>
-  </si>
-  <si>
-    <t>02060132159</t>
-  </si>
-  <si>
-    <t>02131211159</t>
-  </si>
-  <si>
-    <t>02080322160</t>
-  </si>
-  <si>
-    <t>09790531162</t>
-  </si>
-  <si>
-    <t>02120711166</t>
-  </si>
-  <si>
-    <t>09800432167</t>
-  </si>
-  <si>
-    <t>02100511172</t>
-  </si>
-  <si>
-    <t>02161311172</t>
-  </si>
-  <si>
-    <t>03291111172</t>
-  </si>
-  <si>
-    <t>04400313174</t>
-  </si>
-  <si>
-    <t>04390232175</t>
-  </si>
-  <si>
-    <t>04410412180</t>
-  </si>
-  <si>
-    <t>02160912181</t>
-  </si>
-  <si>
-    <t>02141211184</t>
-  </si>
-  <si>
-    <t>03190122184</t>
-  </si>
-  <si>
     <t>02131211185</t>
   </si>
   <si>
     <t>02181113185</t>
   </si>
   <si>
-    <t>04381111188</t>
-  </si>
-  <si>
-    <t>02181113194</t>
-  </si>
-  <si>
-    <t>04431111197</t>
-  </si>
-  <si>
-    <t>01020222200</t>
-  </si>
-  <si>
-    <t>3039</t>
-  </si>
-  <si>
-    <t>5144</t>
-  </si>
-  <si>
-    <t>Emisang Ts'osane</t>
-  </si>
-  <si>
-    <t>Ivy Makoa</t>
-  </si>
-  <si>
     <t>02131211001</t>
   </si>
   <si>
     <t>02131211099</t>
+  </si>
+  <si>
+    <t>Mapule Phahla</t>
+  </si>
+  <si>
+    <t>Prince Seeiso</t>
+  </si>
+  <si>
+    <t>Maliau Lelotha</t>
+  </si>
+  <si>
+    <t>Maama Letsie</t>
+  </si>
+  <si>
+    <t>Tsautse Rankhelepe</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>Ts'along Seoe</t>
+  </si>
+  <si>
+    <t>Foulo Stephen</t>
+  </si>
+  <si>
+    <t>Tuoane Skhozana</t>
+  </si>
+  <si>
+    <t>Letuka La Nkhauli</t>
+  </si>
+  <si>
+    <t>Pelesana Moerane</t>
+  </si>
+  <si>
+    <t>Lehlohonolo Takalimane</t>
+  </si>
+  <si>
+    <t>Teboho Putsoane</t>
+  </si>
+  <si>
+    <t>Sekobotela Mosae</t>
+  </si>
+  <si>
+    <t>6782</t>
+  </si>
+  <si>
+    <t>9313</t>
+  </si>
+  <si>
+    <t>9075</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>7289</t>
+  </si>
+  <si>
+    <t>4987</t>
+  </si>
+  <si>
+    <t>8168</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1202,6 +557,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,12 +858,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="A2:I89"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1532,2553 +889,492 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>90</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>191</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B4" t="s">
-        <v>365</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>129</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" t="s">
-        <v>179</v>
+      <c r="A5" s="1">
+        <v>1421</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
+      <c r="A6" s="1">
+        <v>2428</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" t="s">
-        <v>366</v>
+        <v>150</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
+      <c r="A8" s="1">
+        <v>3282</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>53</v>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
+      <c r="A9" s="1">
+        <v>4571</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
+      <c r="D9" s="2" t="str">
+        <f>CONCATENATE(E9,F9,RIGHT(G9,2),H9,I9,"0",J9)</f>
+        <v>043611110</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
+      <c r="A10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>126</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
+      <c r="A11" s="1">
+        <v>5323</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>124</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
+      <c r="A13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
+      <c r="A14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>336</v>
+      <c r="D14" t="s">
+        <v>132</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
+      <c r="A15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
+        <v>122</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>202</v>
+        <v>64</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" t="s">
-        <v>202</v>
+      <c r="A17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>291</v>
+      <c r="D17" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>267</v>
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
+      <c r="A18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>311</v>
+      <c r="D18" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" t="s">
-        <v>270</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>312</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G21" t="s">
-        <v>272</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G22" t="s">
-        <v>261</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" t="s">
-        <v>231</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>357</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>330</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>248</v>
-      </c>
-      <c r="G29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>359</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" t="s">
-        <v>270</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>351</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s">
-        <v>257</v>
-      </c>
-      <c r="G33" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>350</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>246</v>
-      </c>
-      <c r="G34" t="s">
-        <v>270</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>353</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>352</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>290</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" t="s">
-        <v>251</v>
-      </c>
-      <c r="G38" t="s">
-        <v>270</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>252</v>
-      </c>
-      <c r="G39" t="s">
-        <v>270</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>317</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G43" t="s">
-        <v>270</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>207</v>
-      </c>
-      <c r="B44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>329</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="1">
-        <v>3</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>310</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" t="s">
-        <v>264</v>
-      </c>
-      <c r="G45" t="s">
-        <v>273</v>
-      </c>
-      <c r="H45" s="1">
-        <v>3</v>
-      </c>
-      <c r="I45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>344</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>275</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>356</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>239</v>
-      </c>
-      <c r="G47" t="s">
-        <v>240</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>8247</v>
-      </c>
-      <c r="B49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>360</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s">
-        <v>270</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>332</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>345</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" t="s">
-        <v>267</v>
-      </c>
-      <c r="G52" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" s="1">
-        <v>3</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>346</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G53" t="s">
-        <v>234</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>358</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s">
-        <v>253</v>
-      </c>
-      <c r="G56" t="s">
-        <v>270</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="1">
-        <v>13</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>305</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G59" t="s">
-        <v>270</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B60" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>241</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G61" t="s">
-        <v>262</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>347</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" t="s">
-        <v>268</v>
-      </c>
-      <c r="G62" t="s">
-        <v>271</v>
-      </c>
-      <c r="H62" s="1">
-        <v>3</v>
-      </c>
-      <c r="I62" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G63" t="s">
-        <v>270</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G65" t="s">
-        <v>270</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
-        <v>2928</v>
-      </c>
-      <c r="B66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>231</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G67" t="s">
-        <v>274</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G68" t="s">
-        <v>243</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G69" t="s">
-        <v>235</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>308</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" t="s">
-        <v>245</v>
-      </c>
-      <c r="G70" t="s">
-        <v>270</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>296</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G72" t="s">
-        <v>277</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>307</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>276</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G76" t="s">
-        <v>269</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>324</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>45</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78">
-        <v>7847</v>
-      </c>
-      <c r="B78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>318</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" t="s">
-        <v>236</v>
-      </c>
-      <c r="G78" t="s">
-        <v>233</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>205</v>
-      </c>
-      <c r="B80" t="s">
-        <v>206</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>293</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>362</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>229</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>46</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>133</v>
-      </c>
-      <c r="B83" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G83" t="s">
-        <v>271</v>
-      </c>
-      <c r="H83" s="1">
-        <v>3</v>
-      </c>
-      <c r="I83" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" t="s">
-        <v>36</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G85" t="s">
-        <v>258</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" t="s">
-        <v>211</v>
-      </c>
-      <c r="B86" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>331</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" t="s">
-        <v>45</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" t="s">
-        <v>225</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G88" t="s">
-        <v>235</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>348</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>232</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1"/>
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
-    <sortState ref="A2:I89">
-      <sortCondition ref="B1"/>
+    <sortState ref="A2:I18">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:I92">
@@ -4094,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3731"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F84" sqref="A2:F84"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15"/>
@@ -4114,976 +1410,976 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE(B2,C2,RIGHT(D2,2),E2,F2,"00",G2)</f>
-        <v>02140812001</v>
+        <f>CONCATENATE(B2,C2,RIGHT(D2,2),E2,F2,G2)</f>
+        <v>01010112022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="G2" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A5" si="0">CONCATENATE(B3,C3,RIGHT(D3,2),E3,F3,"00",G3)</f>
-        <v>03260712003</v>
+        <f>CONCATENATE(B3,C3,RIGHT(D3,2),E3,F3,G3)</f>
+        <v>01020222200</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>04471012008</v>
+        <f>CONCATENATE(B4,C4,RIGHT(D4,2),E4,F4,"0",G4)</f>
+        <v>01030332056</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8</v>
+      <c r="G4" s="4">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>04380121009</v>
+        <f>CONCATENATE(B5,C5,RIGHT(D5,2),E5,F5,"0",G5)</f>
+        <v>01040423029</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="str">
-        <f>CONCATENATE(B6,C6,RIGHT(D6,2),E6,F6,G6)</f>
-        <v>01010112022</v>
+        <f>CONCATENATE(B6,C6,RIGHT(D6,2),E6,F6,"0",G6)</f>
+        <v>01050511060</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>278</v>
+        <v>53</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="str">
-        <f>CONCATENATE(B7,C7,RIGHT(D7,2),E7,F7,"0",G7)</f>
-        <v>04450822022</v>
+        <f>CONCATENATE(B7,C7,RIGHT(D7,2),E7,F7,G7)</f>
+        <v>02060132159</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
-        <f t="shared" ref="A8:A43" si="1">CONCATENATE(B8,C8,RIGHT(D8,2),E8,F8,"0",G8)</f>
-        <v>03270812023</v>
+        <f>CONCATENATE(B8,C8,RIGHT(D8,2),E8,F8,G8)</f>
+        <v>02070222107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01040423029</v>
+        <f>CONCATENATE(B9,C9,RIGHT(D9,2),E9,F9,G9)</f>
+        <v>02080322160</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04351111030</v>
+        <f>CONCATENATE(B10,C10,RIGHT(D10,2),E10,F10,"0",G10)</f>
+        <v>02081211084</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>03210312031</v>
+        <f>CONCATENATE(B11,C11,RIGHT(D11,2),E11,F11,"0",G11)</f>
+        <v>02090411045</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04341111031</v>
+        <f>CONCATENATE(B12,C12,RIGHT(D12,2),E12,F12,G12)</f>
+        <v>02100511172</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
-        <v>31</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>09790332039</v>
+        <f>CONCATENATE(B13,C13,RIGHT(D13,2),E13,F13,"0",G13)</f>
+        <v>02110511083</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G13" s="1">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04460932041</v>
+        <f>CONCATENATE(B14,C14,RIGHT(D14,2),E14,F14,"0",G14)</f>
+        <v>02110612085</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02090411045</v>
+        <f>CONCATENATE(B15,C15,RIGHT(D15,2),E15,F15,G15)</f>
+        <v>02120711166</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1">
-        <v>45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>03241011046</v>
+        <f>CONCATENATE(B16,C16,RIGHT(D16,2),E16,F16,"0",G16)</f>
+        <v>02131211050</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04440722049</v>
+        <f>CONCATENATE(B17,C17,RIGHT(D17,2),E17,F17,"0",G17)</f>
+        <v>02131211058</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02131211050</v>
+        <f>CONCATENATE(B18,C18,RIGHT(D18,2),E18,F18,"0",G18)</f>
+        <v>02131211067</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04301111055</v>
+        <f>CONCATENATE(B19,C19,RIGHT(D19,2),E19,F19,"0",G19)</f>
+        <v>02131211074</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01030332056</v>
+        <f>CONCATENATE(B20,C20,RIGHT(D20,2),E20,F20,"0",G20)</f>
+        <v>02131211084</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="4">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="G20" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04421111056</v>
+        <f>CONCATENATE(B21,C21,RIGHT(D21,2),E21,F21,"0",G21)</f>
+        <v>02131211097</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04471211056</v>
+        <f>CONCATENATE(B22,C22,RIGHT(D22,2),E22,F22,G22)</f>
+        <v>02131211101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04411111057</v>
+        <f>CONCATENATE(B23,C23,RIGHT(D23,2),E23,F23,G23)</f>
+        <v>02131211109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02131211058</v>
+        <f>CONCATENATE(B24,C24,RIGHT(D24,2),E24,F24,G24)</f>
+        <v>02131211127</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04371111058</v>
+        <f>CONCATENATE(B25,C25,RIGHT(D25,2),E25,F25,G25)</f>
+        <v>02131211159</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1">
-        <v>58</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01050511060</v>
+        <f>CONCATENATE(B26,C26,RIGHT(D26,2),E26,F26,G26)</f>
+        <v>02131211185</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1">
-        <v>60</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>03200232061</v>
+        <f>CONCATENATE(B27,C27,RIGHT(D27,2),E27,F27,"00",G27)</f>
+        <v>02140812001</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04361111064</v>
+        <f>CONCATENATE(B28,C28,RIGHT(D28,2),E28,F28,G28)</f>
+        <v>02140812115</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="1">
-        <v>64</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02131211067</v>
+        <f>CONCATENATE(B29,C29,RIGHT(D29,2),E29,F29,G29)</f>
+        <v>02141211140</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1">
-        <v>67</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>03281111067</v>
+        <f>CONCATENATE(B30,C30,RIGHT(D30,2),E30,F30,G30)</f>
+        <v>02141211184</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1">
-        <v>67</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02171013070</v>
+        <f>CONCATENATE(B31,C31,RIGHT(D31,2),E31,F31,G31)</f>
+        <v>02151311128</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="1">
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>09770132071</v>
+        <f>CONCATENATE(B32,C32,RIGHT(D32,2),E32,F32,G32)</f>
+        <v>02151311145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G32" s="1">
-        <v>71</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02131211074</v>
+        <f>CONCATENATE(B33,C33,RIGHT(D33,2),E33,F33,G33)</f>
+        <v>02160912137</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G33" s="1">
-        <v>74</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02161311074</v>
+        <f>CONCATENATE(B34,C34,RIGHT(D34,2),E34,F34,G34)</f>
+        <v>02160912181</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G34" s="1">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>03230512077</v>
+        <f>CONCATENATE(B35,C35,RIGHT(D35,2),E35,F35,"0",G35)</f>
+        <v>02161311074</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G35" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04321111077</v>
+        <f>CONCATENATE(B36,C36,RIGHT(D36,2),E36,F36,G36)</f>
+        <v>02161311172</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="1">
-        <v>77</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02110511083</v>
+        <f>CONCATENATE(B37,C37,RIGHT(D37,2),E37,F37,"0",G37)</f>
+        <v>02171013070</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G37" s="1">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02081211084</v>
+        <f>CONCATENATE(B38,C38,RIGHT(D38,2),E38,F38,G38)</f>
+        <v>02171013117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G38" s="1">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02131211084</v>
+        <f>CONCATENATE(B39,C39,RIGHT(D39,2),E39,F39,G39)</f>
+        <v>02181113185</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1">
-        <v>84</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02110612085</v>
+        <f>CONCATENATE(B40,C40,RIGHT(D40,2),E40,F40,G40)</f>
+        <v>02181113194</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G40" s="1">
-        <v>85</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>02131211097</v>
+        <f>CONCATENATE(B41,C41,RIGHT(D41,2),E41,F41,G41)</f>
+        <v>03190122184</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>54</v>
@@ -5092,142 +2388,142 @@
         <v>54</v>
       </c>
       <c r="G41" s="1">
-        <v>97</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04401111099</v>
+        <f>CONCATENATE(B42,C42,RIGHT(D42,2),E42,F42,"0",G42)</f>
+        <v>03200232061</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="1">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>04430613099</v>
+        <f>CONCATENATE(B43,C43,RIGHT(D43,2),E43,F43,"0",G43)</f>
+        <v>03210312031</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G43" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="str">
         <f>CONCATENATE(B44,C44,RIGHT(D44,2),E44,F44,G44)</f>
-        <v>02131211101</v>
+        <v>03220413147</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G44" s="1">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="str">
-        <f t="shared" ref="A45:A84" si="2">CONCATENATE(B45,C45,RIGHT(D45,2),E45,F45,G45)</f>
-        <v>02070222107</v>
+        <f>CONCATENATE(B45,C45,RIGHT(D45,2),E45,F45,"0",G45)</f>
+        <v>03230512077</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="1">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02131211109</v>
+        <f>CONCATENATE(B46,C46,RIGHT(D46,2),E46,F46,"0",G46)</f>
+        <v>03241011046</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46" s="1">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>03271111110</v>
+        <f>CONCATENATE(B47,C47,RIGHT(D47,2),E47,F47,G47)</f>
+        <v>03250622133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>54</v>
@@ -5236,334 +2532,334 @@
         <v>54</v>
       </c>
       <c r="G47" s="1">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02140812115</v>
+        <f>CONCATENATE(B48,C48,RIGHT(D48,2),E48,F48,"00",G48)</f>
+        <v>03260712003</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G48" s="1">
-        <v>115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>09780232116</v>
+        <f>CONCATENATE(B49,C49,RIGHT(D49,2),E49,F49,"0",G49)</f>
+        <v>03270812023</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D49" t="s">
-        <v>272</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G49" s="1">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02171013117</v>
+        <f>CONCATENATE(B50,C50,RIGHT(D50,2),E50,F50,G50)</f>
+        <v>03271111110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G50" s="1">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>09790332118</v>
+        <f>CONCATENATE(B51,C51,RIGHT(D51,2),E51,F51,"0",G51)</f>
+        <v>03281111067</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G51" s="1">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04311111119</v>
+        <f>CONCATENATE(B52,C52,RIGHT(D52,2),E52,F52,G52)</f>
+        <v>03291111172</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G52" s="1">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02131211127</v>
+        <f>CONCATENATE(B53,C53,RIGHT(D53,2),E53,F53,"0",G53)</f>
+        <v>04301111055</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G53" s="1">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02151311128</v>
+        <f>CONCATENATE(B54,C54,RIGHT(D54,2),E54,F54,G54)</f>
+        <v>04311111119</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" s="1">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>03250622133</v>
+        <f>CONCATENATE(B55,C55,RIGHT(D55,2),E55,F55,"0",G55)</f>
+        <v>04321111077</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G55" s="1">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>09800432134</v>
+        <f>CONCATENATE(B56,C56,RIGHT(D56,2),E56,F56,G56)</f>
+        <v>04331111157</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D56" t="s">
-        <v>271</v>
-      </c>
-      <c r="E56" s="1">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G56" s="1">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02160912137</v>
+        <f>CONCATENATE(B57,C57,RIGHT(D57,2),E57,F57,"0",G57)</f>
+        <v>04341111031</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G57" s="1">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02141211140</v>
+        <f>CONCATENATE(B58,C58,RIGHT(D58,2),E58,F58,"0",G58)</f>
+        <v>04351111030</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G58" s="1">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02151311145</v>
+        <f>CONCATENATE(B59,C59,RIGHT(D59,2),E59,F59,"0",G59)</f>
+        <v>04361111064</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G59" s="1">
-        <v>145</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04391121146</v>
+        <f>CONCATENATE(B60,C60,RIGHT(D60,2),E60,F60,"0",G60)</f>
+        <v>04371111058</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G60" s="1">
-        <v>146</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>03220413147</v>
+        <f>CONCATENATE(B61,C61,RIGHT(D61,2),E61,F61,"00",G61)</f>
+        <v>04380121009</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>54</v>
@@ -5572,559 +2868,559 @@
         <v>53</v>
       </c>
       <c r="G61" s="1">
-        <v>147</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04420513152</v>
+        <f>CONCATENATE(B62,C62,RIGHT(D62,2),E62,F62,G62)</f>
+        <v>04381111188</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>274</v>
+        <v>110</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G62" s="1">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04331111157</v>
+        <f>CONCATENATE(B63,C63,RIGHT(D63,2),E63,F63,G63)</f>
+        <v>04390232175</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G63" s="1">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02060132159</v>
+        <f>CONCATENATE(B64,C64,RIGHT(D64,2),E64,F64,G64)</f>
+        <v>04391121146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G64" s="1">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02131211159</v>
+        <f>CONCATENATE(B65,C65,RIGHT(D65,2),E65,F65,G65)</f>
+        <v>04400313174</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G65" s="1">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02080322160</v>
+        <f>CONCATENATE(B66,C66,RIGHT(D66,2),E66,F66,"0",G66)</f>
+        <v>04401111099</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G66" s="1">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>09790531162</v>
+        <f>CONCATENATE(B67,C67,RIGHT(D67,2),E67,F67,G67)</f>
+        <v>04410412180</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D67" t="s">
-        <v>266</v>
-      </c>
-      <c r="E67" s="1">
-        <v>3</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G67" s="1">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02120711166</v>
+        <f>CONCATENATE(B68,C68,RIGHT(D68,2),E68,F68,"0",G68)</f>
+        <v>04411111057</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G68" s="1">
-        <v>166</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>09800432167</v>
+        <f>CONCATENATE(B69,C69,RIGHT(D69,2),E69,F69,G69)</f>
+        <v>04420513152</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D69" t="s">
-        <v>271</v>
-      </c>
-      <c r="E69" s="1">
-        <v>3</v>
-      </c>
-      <c r="F69" s="1">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G69" s="1">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02100511172</v>
+        <f>CONCATENATE(B70,C70,RIGHT(D70,2),E70,F70,"0",G70)</f>
+        <v>04421111056</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G70" s="1">
-        <v>172</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02161311172</v>
+        <f>CONCATENATE(B71,C71,RIGHT(D71,2),E71,F71,"0",G71)</f>
+        <v>04430613099</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G71" s="1">
-        <v>172</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>03291111172</v>
+        <f>CONCATENATE(B72,C72,RIGHT(D72,2),E72,F72,G72)</f>
+        <v>04431111197</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G72" s="1">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04400313174</v>
+        <f>CONCATENATE(B73,C73,RIGHT(D73,2),E73,F73,"0",G73)</f>
+        <v>04440722049</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G73" s="1">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04390232175</v>
+        <f>CONCATENATE(B74,C74,RIGHT(D74,2),E74,F74,"0",G74)</f>
+        <v>04450822022</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G74" s="1">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04410412180</v>
+        <f>CONCATENATE(B75,C75,RIGHT(D75,2),E75,F75,"0",G75)</f>
+        <v>04460932041</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G75" s="1">
-        <v>180</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02160912181</v>
+        <f>CONCATENATE(B76,C76,RIGHT(D76,2),E76,F76,"00",G76)</f>
+        <v>04471012008</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G76" s="1">
-        <v>181</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02141211184</v>
+        <f>CONCATENATE(B77,C77,RIGHT(D77,2),E77,F77,"0",G77)</f>
+        <v>04471211056</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G77" s="1">
-        <v>184</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>03190122184</v>
+        <f>CONCATENATE(B78,C78,RIGHT(D78,2),E78,F78,"0",G78)</f>
+        <v>09770132071</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
       </c>
       <c r="G78" s="1">
-        <v>184</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02131211185</v>
+        <f>CONCATENATE(B79,C79,RIGHT(D79,2),E79,F79,G79)</f>
+        <v>09780232116</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
+      </c>
+      <c r="D79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2</v>
       </c>
       <c r="G79" s="1">
-        <v>185</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02181113185</v>
+        <f>CONCATENATE(B80,C80,RIGHT(D80,2),E80,F80,"0",G80)</f>
+        <v>09790332039</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
       </c>
       <c r="G80" s="1">
-        <v>185</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04381111188</v>
+        <f>CONCATENATE(B81,C81,RIGHT(D81,2),E81,F81,G81)</f>
+        <v>09790332118</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="1">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2</v>
       </c>
       <c r="G81" s="1">
-        <v>188</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>02181113194</v>
+        <f>CONCATENATE(B82,C82,RIGHT(D82,2),E82,F82,G82)</f>
+        <v>09790531162</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c r="D82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
       </c>
       <c r="G82" s="1">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>04431111197</v>
+        <f>CONCATENATE(B83,C83,RIGHT(D83,2),E83,F83,G83)</f>
+        <v>09800432134</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
       </c>
       <c r="G83" s="1">
-        <v>197</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>01020222200</v>
+        <f>CONCATENATE(B84,C84,RIGHT(D84,2),E84,F84,G84)</f>
+        <v>09800432167</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
+      </c>
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="1">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2</v>
       </c>
       <c r="G84" s="1">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -31659,7 +28955,7 @@
   </sheetData>
   <autoFilter ref="A1:G1">
     <sortState ref="A2:G84">
-      <sortCondition ref="G1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:F84">

--- a/Menu/staff.xlsx
+++ b/Menu/staff.xlsx
@@ -861,9 +861,9 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1085,8 +1085,8 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>CONCATENATE(E9,F9,RIGHT(G9,2),H9,I9,"0",J9)</f>
-        <v>043611110</v>
+        <f>CONCATENATE(E9,F9,RIGHT(G9,2),H9,I9,"0",J9,"98")</f>
+        <v>04361111098</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
-        <f>CONCATENATE(B16,C16,RIGHT(D16,2),E16,F16,"0",G16)</f>
+        <f t="shared" ref="A16:A21" si="0">CONCATENATE(B16,C16,RIGHT(D16,2),E16,F16,"0",G16)</f>
         <v>02131211050</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1793,7 +1793,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="str">
-        <f>CONCATENATE(B17,C17,RIGHT(D17,2),E17,F17,"0",G17)</f>
+        <f t="shared" si="0"/>
         <v>02131211058</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1817,7 +1817,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="str">
-        <f>CONCATENATE(B18,C18,RIGHT(D18,2),E18,F18,"0",G18)</f>
+        <f t="shared" si="0"/>
         <v>02131211067</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1841,7 +1841,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="str">
-        <f>CONCATENATE(B19,C19,RIGHT(D19,2),E19,F19,"0",G19)</f>
+        <f t="shared" si="0"/>
         <v>02131211074</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1865,7 +1865,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="str">
-        <f>CONCATENATE(B20,C20,RIGHT(D20,2),E20,F20,"0",G20)</f>
+        <f t="shared" si="0"/>
         <v>02131211084</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1889,7 +1889,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="str">
-        <f>CONCATENATE(B21,C21,RIGHT(D21,2),E21,F21,"0",G21)</f>
+        <f t="shared" si="0"/>
         <v>02131211097</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2057,7 +2057,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="str">
-        <f>CONCATENATE(B28,C28,RIGHT(D28,2),E28,F28,G28)</f>
+        <f t="shared" ref="A28:A34" si="1">CONCATENATE(B28,C28,RIGHT(D28,2),E28,F28,G28)</f>
         <v>02140812115</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2081,7 +2081,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
-        <f>CONCATENATE(B29,C29,RIGHT(D29,2),E29,F29,G29)</f>
+        <f t="shared" si="1"/>
         <v>02141211140</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2105,7 +2105,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="str">
-        <f>CONCATENATE(B30,C30,RIGHT(D30,2),E30,F30,G30)</f>
+        <f t="shared" si="1"/>
         <v>02141211184</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2129,7 +2129,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="str">
-        <f>CONCATENATE(B31,C31,RIGHT(D31,2),E31,F31,G31)</f>
+        <f t="shared" si="1"/>
         <v>02151311128</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2153,7 +2153,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="str">
-        <f>CONCATENATE(B32,C32,RIGHT(D32,2),E32,F32,G32)</f>
+        <f t="shared" si="1"/>
         <v>02151311145</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="str">
-        <f>CONCATENATE(B33,C33,RIGHT(D33,2),E33,F33,G33)</f>
+        <f t="shared" si="1"/>
         <v>02160912137</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="str">
-        <f>CONCATENATE(B34,C34,RIGHT(D34,2),E34,F34,G34)</f>
+        <f t="shared" si="1"/>
         <v>02160912181</v>
       </c>
       <c r="B34" s="1" t="s">

--- a/Menu/staff.xlsx
+++ b/Menu/staff.xlsx
@@ -815,10 +815,17 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -844,12 +851,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,9 +1167,9 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:B23"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1289,32 +1300,32 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" s="6" customFormat="1">
+      <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -1753,32 +1764,32 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:9" s="6" customFormat="1">
+      <c r="A21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -1840,32 +1851,32 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:9" s="6" customFormat="1">
+      <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2188,32 +2199,32 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:9" s="6" customFormat="1">
+      <c r="A36" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="H36" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>239</v>
       </c>
     </row>
